--- a/data/listuser/listkodeunit.xlsx
+++ b/data/listuser/listkodeunit.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656676F6-F280-429F-A82A-7E99BC7AA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8A88F-D0F5-4DEF-9E64-ABD109D91F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kdunit" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>kodeunit</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>32AMS</t>
+  </si>
+  <si>
+    <t>kdup3</t>
+  </si>
+  <si>
+    <t>kduid</t>
   </si>
 </sst>
 </file>
@@ -372,78 +378,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>32111</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>32121</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>42131</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>32141</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>32151</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>32161</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/listuser/listkodeunit.xlsx
+++ b/data/listuser/listkodeunit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\listuser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8A88F-D0F5-4DEF-9E64-ABD109D91F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3395E2BD-96B8-4384-8F6F-330E9A40DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>42131</v>
+        <v>32131</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
